--- a/test/configs/data/costs.xlsx
+++ b/test/configs/data/costs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aless\sms\transformation_pypsa_smspp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aless\sms\transformation_pypsa_smspp\test\configs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -395,7 +395,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -590,7 +590,7 @@
         <v>79111.325293890361</v>
       </c>
       <c r="H6">
-        <v>0.01</v>
+        <v>30</v>
       </c>
       <c r="I6">
         <f t="shared" si="1"/>

--- a/test/configs/data/costs.xlsx
+++ b/test/configs/data/costs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>battery_link</t>
+  </si>
+  <si>
+    <t>slack</t>
   </si>
 </sst>
 </file>
@@ -392,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,7 +530,7 @@
         <v>129223.5909576603</v>
       </c>
       <c r="H4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <f t="shared" si="1"/>
@@ -558,8 +561,7 @@
         <v>206381.70887226312</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5" si="2">D5</f>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <f t="shared" si="1"/>
@@ -680,15 +682,44 @@
         <v>0.08</v>
       </c>
       <c r="G9">
-        <f t="shared" ref="G9" si="3" xml:space="preserve"> (I9 + C9) /100*B9</f>
+        <f t="shared" ref="G9:G10" si="2" xml:space="preserve"> (I9 + C9) /100*B9</f>
         <v>6461.1795478830145</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <f t="shared" ref="I9" si="4">F9 / (1 - 1/(1 + F9) ^E9) *100</f>
+        <f t="shared" ref="I9:I10" si="3">F9 / (1 - 1/(1 + F9) ^E9) *100</f>
         <v>14.902948869707537</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>10000</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/test/configs/data/costs.xlsx
+++ b/test/configs/data/costs.xlsx
@@ -398,7 +398,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -682,14 +682,14 @@
         <v>0.08</v>
       </c>
       <c r="G9">
-        <f t="shared" ref="G9:G10" si="2" xml:space="preserve"> (I9 + C9) /100*B9</f>
+        <f t="shared" ref="G9" si="2" xml:space="preserve"> (I9 + C9) /100*B9</f>
         <v>6461.1795478830145</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <f t="shared" ref="I9:I10" si="3">F9 / (1 - 1/(1 + F9) ^E9) *100</f>
+        <f t="shared" ref="I9" si="3">F9 / (1 - 1/(1 + F9) ^E9) *100</f>
         <v>14.902948869707537</v>
       </c>
     </row>

--- a/test/configs/data/costs.xlsx
+++ b/test/configs/data/costs.xlsx
@@ -74,10 +74,10 @@
     <t>store</t>
   </si>
   <si>
-    <t>battery_link</t>
-  </si>
-  <si>
     <t>slack</t>
+  </si>
+  <si>
+    <t>batterylink</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -664,7 +664,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>40000</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>0</v>
